--- a/vlookup with if fumction.xlsx
+++ b/vlookup with if fumction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MIS\Lookup Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BE9A8E-D939-4CF2-B80B-097B65922D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9CEA83-E6A5-48AF-ACE6-4FEC616A2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CDD3F82B-550D-4CF5-843C-218FE27A4291}"/>
   </bookViews>
